--- a/logements.xlsx
+++ b/logements.xlsx
@@ -15,14 +15,14 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$B$4:$M$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$A$4:$M$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>kWh</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Surface (m²)</t>
-  </si>
-  <si>
-    <t>Prix du kWh (€/kWh)</t>
   </si>
   <si>
     <t>kWh/an</t>
@@ -101,13 +98,79 @@
   </si>
   <si>
     <t>très proche des transports</t>
+  </si>
+  <si>
+    <t>Une des chambres donne sur le séjour :(</t>
+  </si>
+  <si>
+    <t>Le séjour peut servir de chambre à part si besoin</t>
+  </si>
+  <si>
+    <t>Des travaux pour refaire la sdb sont à prévoir :(</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/126746259.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/cormiers-hauts-batons-champy-butte-verte/136850487.htm</t>
+  </si>
+  <si>
+    <t>proche des transports</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/cormiers-hauts-batons-champy-butte-verte/138136503.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/bry-sur-marne-94/les-coteaux/136324561.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/bry-sur-marne-94/les-coteaux/139119491.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-boutareines/16247077.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/134343577.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/136357959.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/champigny-sur-marne-94/124476811.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/neuilly-sur-marne-93/126243295.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/fontenay-sous-bois-94/larris/139379587.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/neuilly-sur-marne-93/139670313.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-portes-de-villiers/135463585.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/135373189.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-boutareines/138946913.htm</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/fontenay-sous-bois-94/larris/135087903.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix du kWh </t>
+  </si>
+  <si>
+    <t>Prix du m²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +305,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -687,7 +758,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -730,20 +801,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -754,8 +817,19 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -785,6 +859,7 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1109,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,112 +1196,124 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.58</v>
+      </c>
+      <c r="I2">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10">
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>102</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>158</v>
+      </c>
       <c r="F5" s="2">
+        <f>E5/D5</f>
+        <v>1.5490196078431373</v>
+      </c>
+      <c r="G5" s="2">
         <v>95</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.14499999999999999</v>
-      </c>
       <c r="H5" s="2">
-        <f>F5/$G$2*D5</f>
+        <f>G5/$H$2*D5</f>
         <v>3755.8139534883717</v>
       </c>
       <c r="I5" s="2">
-        <f>H5*G5</f>
+        <f>H5*$I$2</f>
         <v>544.59302325581382</v>
       </c>
       <c r="J5" s="2">
@@ -1237,15 +1324,17 @@
         <f>D5/J5</f>
         <v>2.2475499092558988</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1255,19 +1344,22 @@
       <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
+        <v>189</v>
+      </c>
+      <c r="F6" s="2">
+        <f>E6/D6</f>
+        <v>1.89</v>
+      </c>
+      <c r="G6" s="1">
         <v>240</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.14499999999999999</v>
-      </c>
       <c r="H6" s="1">
-        <f>F6/$G$2*D6</f>
+        <f>G6/$H$2*D6</f>
         <v>9302.3255813953474</v>
       </c>
-      <c r="I6" s="1">
-        <f>H6*G6</f>
+      <c r="I6" s="2">
+        <f>H6*$I$2</f>
         <v>1348.8372093023254</v>
       </c>
       <c r="J6" s="1">
@@ -1279,55 +1371,62 @@
         <v>0.88965517241379322</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>93.29</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>190</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.14499999999999999</v>
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10">
+        <v>147</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7/D7</f>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="G7" s="10">
+        <v>188</v>
       </c>
       <c r="H7" s="1">
-        <f>F7/$G$2*D7</f>
-        <v>6870.1937984496126</v>
-      </c>
-      <c r="I7" s="1">
-        <f>H7*G7</f>
-        <v>996.1781007751938</v>
+        <f>G7/$H$2*D7</f>
+        <v>5610.8527131782948</v>
+      </c>
+      <c r="I7" s="2">
+        <f>H7*$I$2</f>
+        <v>813.5736434108527</v>
       </c>
       <c r="J7" s="1">
         <f>I7/12</f>
-        <v>83.014841731266145</v>
+        <v>67.797803617571063</v>
       </c>
       <c r="K7" s="1">
         <f>D7/J7</f>
-        <v>1.1237749546279494</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>13</v>
+        <v>1.1357300073367571</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1337,19 +1436,22 @@
       <c r="D8" s="1">
         <v>90</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2">
+        <f>E8/D8</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
         <v>295</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.14499999999999999</v>
-      </c>
       <c r="H8" s="1">
-        <f>F8/$G$2*D8</f>
+        <f>G8/$H$2*D8</f>
         <v>10290.697674418605</v>
       </c>
-      <c r="I8" s="1">
-        <f>H8*G8</f>
+      <c r="I8" s="2">
+        <f>H8*$I$2</f>
         <v>1492.1511627906975</v>
       </c>
       <c r="J8" s="1">
@@ -1361,14 +1463,16 @@
         <v>0.72378725891291651</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1376,216 +1480,633 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>83.14</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>164</v>
+        <v>93.29</v>
+      </c>
+      <c r="E9" s="1">
+        <v>190</v>
+      </c>
+      <c r="F9" s="2">
+        <f>E9/D9</f>
+        <v>2.0366598778004072</v>
       </c>
       <c r="G9" s="1">
-        <v>0.14499999999999999</v>
+        <v>190</v>
       </c>
       <c r="H9" s="1">
-        <f>F9/$G$2*D9</f>
-        <v>5284.8682170542634</v>
-      </c>
-      <c r="I9" s="1">
-        <f>H9*G9</f>
-        <v>766.3058914728681</v>
+        <f>G9/$H$2*D9</f>
+        <v>6870.1937984496126</v>
+      </c>
+      <c r="I9" s="2">
+        <f>H9*$I$2</f>
+        <v>996.1781007751938</v>
       </c>
       <c r="J9" s="1">
         <f>I9/12</f>
-        <v>63.858824289405675</v>
+        <v>83.014841731266145</v>
       </c>
       <c r="K9" s="1">
         <f>D9/J9</f>
-        <v>1.3019343986543317</v>
+        <v>1.1237749546279494</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>76</v>
-      </c>
-      <c r="E10" s="1">
-        <v>197</v>
-      </c>
-      <c r="F10" s="1">
-        <v>259</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.14499999999999999</v>
+      <c r="D10" s="10">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E10" s="10">
+        <v>167.5</v>
+      </c>
+      <c r="F10" s="2">
+        <f>E10/D10</f>
+        <v>2.2156084656084656</v>
+      </c>
+      <c r="G10" s="10">
+        <v>180</v>
       </c>
       <c r="H10" s="1">
-        <f>F10/$G$2*D10</f>
-        <v>7629.4573643410849</v>
-      </c>
-      <c r="I10" s="1">
-        <f>H10*G10</f>
-        <v>1106.2713178294573</v>
+        <f>G10/$H$2*D10</f>
+        <v>5274.4186046511622</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10*$I$2</f>
+        <v>764.79069767441842</v>
       </c>
       <c r="J10" s="1">
         <f>I10/12</f>
-        <v>92.189276485788113</v>
+        <v>63.732558139534866</v>
       </c>
       <c r="K10" s="1">
         <f>D10/J10</f>
-        <v>0.82439089335641058</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>25</v>
+        <v>1.1862068965517243</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
       <c r="D11" s="1">
-        <v>63</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>282</v>
+        <v>83.14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>194</v>
+      </c>
+      <c r="F11" s="2">
+        <f>E11/D11</f>
+        <v>2.3334135193649268</v>
       </c>
       <c r="G11" s="1">
-        <v>0.14499999999999999</v>
+        <v>164</v>
       </c>
       <c r="H11" s="1">
-        <f>F11/$G$2*D11</f>
-        <v>6886.0465116279074</v>
-      </c>
-      <c r="I11" s="1">
-        <f>H11*G11</f>
-        <v>998.47674418604652</v>
+        <f>G11/$H$2*D11</f>
+        <v>5284.8682170542634</v>
+      </c>
+      <c r="I11" s="2">
+        <f>H11*$I$2</f>
+        <v>766.3058914728681</v>
       </c>
       <c r="J11" s="1">
         <f>I11/12</f>
-        <v>83.206395348837205</v>
+        <v>63.858824289405675</v>
       </c>
       <c r="K11" s="1">
         <f>D11/J11</f>
-        <v>0.75715333822450481</v>
+        <v>1.3019343986543317</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="13">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>63</v>
-      </c>
-      <c r="E12" s="13">
-        <v>199</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H12" s="1" t="e">
-        <f>F12/$G$2*D12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="1" t="e">
-        <f>H12*G12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="1" t="e">
+      <c r="D12" s="10">
+        <v>81</v>
+      </c>
+      <c r="E12" s="10">
+        <v>192</v>
+      </c>
+      <c r="F12" s="2">
+        <f>E12/D12</f>
+        <v>2.3703703703703702</v>
+      </c>
+      <c r="G12" s="10">
+        <v>289</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12/$H$2*D12</f>
+        <v>9073.2558139534885</v>
+      </c>
+      <c r="I12" s="2">
+        <f>H12*$I$2</f>
+        <v>1315.6220930232557</v>
+      </c>
+      <c r="J12" s="1">
         <f>I12/12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="1" t="e">
+        <v>109.63517441860465</v>
+      </c>
+      <c r="K12" s="1">
         <f>D12/J12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>25</v>
+        <v>0.73881398401145448</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13">
+      <c r="A13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="13">
-        <v>65</v>
-      </c>
-      <c r="E13" s="13">
-        <v>169</v>
-      </c>
-      <c r="F13" s="13">
-        <v>193</v>
+      <c r="D13" s="1">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1">
+        <v>197</v>
+      </c>
+      <c r="F13" s="2">
+        <f>E13/D13</f>
+        <v>2.5921052631578947</v>
       </c>
       <c r="G13" s="1">
-        <v>0.14499999999999999</v>
+        <v>259</v>
       </c>
       <c r="H13" s="1">
-        <f>F13/$G$2*D13</f>
-        <v>4862.4031007751937</v>
-      </c>
-      <c r="I13" s="1">
-        <f>H13*G13</f>
-        <v>705.04844961240303</v>
+        <f>G13/$H$2*D13</f>
+        <v>7629.4573643410849</v>
+      </c>
+      <c r="I13" s="2">
+        <f>H13*$I$2</f>
+        <v>1106.2713178294573</v>
       </c>
       <c r="J13" s="1">
         <f>I13/12</f>
-        <v>58.75403746770025</v>
+        <v>92.189276485788113</v>
       </c>
       <c r="K13" s="1">
         <f>D13/J13</f>
+        <v>0.82439089335641058</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>65</v>
+      </c>
+      <c r="E14" s="10">
+        <v>169</v>
+      </c>
+      <c r="F14" s="2">
+        <f>E14/D14</f>
+        <v>2.6</v>
+      </c>
+      <c r="G14" s="10">
+        <v>193</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14/$H$2*D14</f>
+        <v>4862.4031007751937</v>
+      </c>
+      <c r="I14" s="2">
+        <f>H14*$I$2</f>
+        <v>705.04844961240303</v>
+      </c>
+      <c r="J14" s="1">
+        <f>I14/12</f>
+        <v>58.75403746770025</v>
+      </c>
+      <c r="K14" s="1">
+        <f>D14/J14</f>
         <v>1.1063069501518672</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="13" t="s">
+      <c r="L14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10">
+        <v>193</v>
+      </c>
+      <c r="F15" s="2">
+        <f>E15/D15</f>
+        <v>2.6081081081081079</v>
+      </c>
+      <c r="G15" s="10">
+        <v>278</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15/$H$2*D15</f>
+        <v>7973.6434108527128</v>
+      </c>
+      <c r="I15" s="2">
+        <f>H15*$I$2</f>
+        <v>1156.1782945736434</v>
+      </c>
+      <c r="J15" s="1">
+        <f>I15/12</f>
+        <v>96.348191214470276</v>
+      </c>
+      <c r="K15" s="1">
+        <f>D15/J15</f>
+        <v>0.76804763086082861</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>66</v>
+      </c>
+      <c r="E16" s="10">
+        <v>178</v>
+      </c>
+      <c r="F16" s="2">
+        <f>E16/D16</f>
+        <v>2.6969696969696968</v>
+      </c>
+      <c r="G16" s="10">
+        <v>245</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G16/$H$2*D16</f>
+        <v>6267.4418604651155</v>
+      </c>
+      <c r="I16" s="2">
+        <f>H16*$I$2</f>
+        <v>908.77906976744168</v>
+      </c>
+      <c r="J16" s="1">
+        <f>I16/12</f>
+        <v>75.731589147286812</v>
+      </c>
+      <c r="K16" s="1">
+        <f>D16/J16</f>
+        <v>0.87149894440534847</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1">
+        <v>175</v>
+      </c>
+      <c r="F17" s="2">
+        <f>E17/D17</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="G17" s="1">
+        <v>282</v>
+      </c>
+      <c r="H17" s="1">
+        <f>G17/$H$2*D17</f>
+        <v>6886.0465116279074</v>
+      </c>
+      <c r="I17" s="2">
+        <f>H17*$I$2</f>
+        <v>998.47674418604652</v>
+      </c>
+      <c r="J17" s="1">
+        <f>I17/12</f>
+        <v>83.206395348837205</v>
+      </c>
+      <c r="K17" s="1">
+        <f>D17/J17</f>
+        <v>0.75715333822450481</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>60</v>
+      </c>
+      <c r="E18" s="10">
+        <v>170</v>
+      </c>
+      <c r="F18" s="2">
+        <f>E18/D18</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f>G18/$H$2*D18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="2" t="e">
+        <f>H18*$I$2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f>I18/12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="1" t="e">
+        <f>D18/J18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="E19" s="10">
+        <v>199</v>
+      </c>
+      <c r="F19" s="2">
+        <f>E19/D19</f>
+        <v>2.9969879518072289</v>
+      </c>
+      <c r="G19" s="10">
+        <v>250</v>
+      </c>
+      <c r="H19" s="1">
+        <f>G19/$H$2*D19</f>
+        <v>6434.1085271317834</v>
+      </c>
+      <c r="I19" s="2">
+        <f>H19*$I$2</f>
+        <v>932.94573643410854</v>
+      </c>
+      <c r="J19" s="1">
+        <f>I19/12</f>
+        <v>77.745478036175712</v>
+      </c>
+      <c r="K19" s="1">
+        <f>D19/J19</f>
+        <v>0.85406896551724143</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>63</v>
+      </c>
+      <c r="E20" s="10">
+        <v>199</v>
+      </c>
+      <c r="F20" s="2">
+        <f>E20/D20</f>
+        <v>3.1587301587301586</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="e">
+        <f>G20/$H$2*D20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="2" t="e">
+        <f>H20*$I$2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" s="1" t="e">
+        <f>I20/12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="1" t="e">
+        <f>D20/J20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>56.52</v>
+      </c>
+      <c r="E21" s="10">
+        <v>195</v>
+      </c>
+      <c r="F21" s="2">
+        <f>E21/D21</f>
+        <v>3.4501061571125264</v>
+      </c>
+      <c r="G21" s="10">
+        <v>183</v>
+      </c>
+      <c r="H21" s="1">
+        <f>G21/$H$2*D21</f>
+        <v>4008.9767441860467</v>
+      </c>
+      <c r="I21" s="2">
+        <f>H21*$I$2</f>
+        <v>581.30162790697671</v>
+      </c>
+      <c r="J21" s="1">
+        <f>I21/12</f>
+        <v>48.441802325581392</v>
+      </c>
+      <c r="K21" s="1">
+        <f>D21/J21</f>
+        <v>1.1667608818541551</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="2" t="e">
+        <f>E22/D22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1">
+        <f>G22/$H$2*D22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f>H22*$I$2</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f>I22/12</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="e">
+        <f>D22/J22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:M13"/>
+  <autoFilter ref="A4:M4">
+    <sortState ref="A5:M22">
+      <sortCondition ref="F4"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K13">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="K5:K22">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1596,7 +2117,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1"/>
+    <hyperlink ref="A21" r:id="rId2"/>
+    <hyperlink ref="A18" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A15" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="A6" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A17" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/logements.xlsx
+++ b/logements.xlsx
@@ -1,37 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\Autre\Kikou Lol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\Documents\Kikou Lol\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B4ECAC6-23BF-4422-A5D4-4225666C2698}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="recherches" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$A$4:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$A$4:$L$19</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>kWhep</t>
-  </si>
-  <si>
-    <t>Performance energétique (kWhEP/m².an)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Surface (m²)</t>
   </si>
@@ -42,134 +35,166 @@
     <t>€/an</t>
   </si>
   <si>
-    <t>€/mois</t>
-  </si>
-  <si>
-    <t>Surface/prix</t>
-  </si>
-  <si>
-    <t>Commentaire</t>
-  </si>
-  <si>
-    <t>trop loin des transports</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
     <t>Retenu</t>
   </si>
   <si>
-    <t>demande de gros travaux</t>
-  </si>
-  <si>
     <t>Energie</t>
   </si>
   <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>bon emplacement mais couteux sur l'electricité</t>
-  </si>
-  <si>
-    <t>travaux à prévoir</t>
-  </si>
-  <si>
     <t>Nb pièces</t>
   </si>
   <si>
     <t>Nb Chambres</t>
   </si>
   <si>
-    <t>le site dit 4 chambres mais la description dit 3
-Petit rapport pièces/surface</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
     <t>Lien</t>
   </si>
   <si>
+    <t>Prix d'achat (k€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix du kWh </t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/montreuil-93/ruffins-theophile-sueur-montreau-le-morillon/143279557.htm?cp=93&amp;idtt=2,5&amp;idtypebien=1,2&amp;naturebien=1,2,4&amp;nb_chambres=2&amp;pxmax=190000&amp;tri=initial&amp;bd=ListToDetail</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-portes-de-villiers/143859447.htm?bedrooms=2,3,4,5&amp;enterprise=0&amp;isochronepoints=%5b%7b%22id%22%3a0,%22point%22%3a%7b%22lat%22%3a48.852765,%22lng%22%3a2.486198,%22mode%22%3a%7b%22type%22%3a%22Transit%22,%22place%22%3a0,%22options%22%3a%7b%22rushHour%22%3atrue%7d%7d%7d,%22timeRange%22%3a%5b1800%5d%7d%5d&amp;natures=1,2,4&amp;price=NaN%2f180000&amp;projects=2,5&amp;qsversion=1.0&amp;rooms=3,4,5&amp;sort=d_surface&amp;types=1,2&amp;bd=ListToDetail</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Prix du m² (k€)</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/143347625.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-portes-de-villiers/140950445.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-boutareines/16247077.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/le-plessis-trevise-94/133139157.htm?types=1%2C2&amp;projects=2%2C5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1%2C2%2C4&amp;price=NaN%2F180000&amp;rooms=3%2C4%2C5&amp;bedrooms=2%2C3%2C4%2C5&amp;isochronepoints=%5B%7B%22id%22%3A0%2C%22point%22%3A%7B%22lat%22%3A48.852765%2C%22lng%22%3A2.486198%2C%22mode%22%3A%7B%22type%22%3A%22Transit%22%2C%22place%22%3A0%2C%22options%22%3A%7B%22rushHour%22%3Atrue%7D%7D%7D%2C%22timeRange%22%3A%5B1800%5D%7D%5D&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>Entre Noisy le grand et Villiers sur marne. Un bus proche connecte les deux stations</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/map.htm?types=1%2C2&amp;projects=2%2C5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1%2C2%2C4&amp;price=NaN%2F180000&amp;rooms=3%2C4%2C5&amp;bedrooms=2%2C3%2C4%2C5&amp;isochronepoints=%5B%7B%22id%22%3A0%2C%22point%22%3A%7B%22lat%22%3A48.852765%2C%22lng%22%3A2.486198%2C%22mode%22%3A%7B%22type%22%3A%22Transit%22%2C%22place%22%3A0%2C%22options%22%3A%7B%22rushHour%22%3Atrue%7D%7D%7D%2C%22timeRange%22%3A%5B1800%5D%7D%5D&amp;qsVersion=1.0&amp;bd=ListToCarto_SL</t>
+  </si>
+  <si>
+    <t>A 30 minutes en transports en commun de VdF:</t>
+  </si>
+  <si>
+    <t>les +</t>
+  </si>
+  <si>
+    <t>les -</t>
+  </si>
+  <si>
+    <t>Sur 3 lignes de bus qui vont sur les lignes 9, A et E</t>
+  </si>
+  <si>
+    <t>Très peu de photos</t>
+  </si>
+  <si>
+    <t>Performance énergétique largement insuffisante</t>
+  </si>
+  <si>
+    <t>Sur aucune ligne ferrée</t>
+  </si>
+  <si>
+    <t>À priori proche de la gare de Villiers sur marne</t>
+  </si>
+  <si>
+    <t>Performance énergétique (kWhEP/m².an)</t>
+  </si>
+  <si>
+    <t>Très bonne performance énergétique</t>
+  </si>
+  <si>
+    <t>à Noisy le grand, pas loin du RER A</t>
+  </si>
+  <si>
+    <t>kWhEP / kWh</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-portes-de-villiers/145732803.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-perroquets/136913935.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/champigny-sur-marne-94/coeuilly-village-parisien-perroquets/134715765.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/145133193.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/144543605.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/144107765.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Prix d'achat (k€)</t>
-  </si>
-  <si>
-    <t>très proche des transports</t>
-  </si>
-  <si>
-    <t>Une des chambres donne sur le séjour :(</t>
-  </si>
-  <si>
-    <t>Le séjour peut servir de chambre à part si besoin</t>
-  </si>
-  <si>
-    <t>Des travaux pour refaire la sdb sont à prévoir :(</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/126746259.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/cormiers-hauts-batons-champy-butte-verte/136850487.htm</t>
-  </si>
-  <si>
-    <t>proche des transports</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/cormiers-hauts-batons-champy-butte-verte/138136503.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/bry-sur-marne-94/les-coteaux/136324561.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/bry-sur-marne-94/les-coteaux/139119491.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-boutareines/16247077.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/134343577.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/136357959.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/champigny-sur-marne-94/124476811.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/neuilly-sur-marne-93/126243295.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/fontenay-sous-bois-94/larris/139379587.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/neuilly-sur-marne-93/139670313.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-portes-de-villiers/135463585.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/135373189.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/villiers-sur-marne-94/les-boutareines/138946913.htm</t>
-  </si>
-  <si>
-    <t>https://www.seloger.com/annonces/achat/appartement/fontenay-sous-bois-94/larris/135087903.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prix du kWh </t>
-  </si>
-  <si>
-    <t>Prix du m²</t>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/145773763.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>https://www.seloger.com/annonces/achat/appartement/noisy-le-grand-93/pve-neuf-mont-d-est/136385097.htm?types=1,2&amp;projects=2,5&amp;enterprise=0&amp;sort=d_surface&amp;natures=1,2,4&amp;price=NaN/180000&amp;rooms=3,4,5&amp;bedrooms=2,3,4,5&amp;isochronepoints=[{%22id%22:0,%22point%22:{%22lat%22:48.852765,%22lng%22:2.486198,%22mode%22:{%22type%22:%22Transit%22,%22place%22:0,%22options%22:{%22rushHour%22:true}}},%22timeRange%22:[1800]}]&amp;qsVersion=1.0&amp;BD=Carto_Detail_Cartouche&amp;ref=map</t>
+  </si>
+  <si>
+    <t>Pas de parking
+Peu de photos de l'intérieur</t>
+  </si>
+  <si>
+    <t>Proche RER E</t>
+  </si>
+  <si>
+    <t>Baignore
+Proche RER E</t>
+  </si>
+  <si>
+    <t>Performance énergétique non communiquée</t>
+  </si>
+  <si>
+    <t>2 Parkings</t>
+  </si>
+  <si>
+    <t>Proche RER A</t>
+  </si>
+  <si>
+    <t>Performance énergétique assez haute</t>
+  </si>
+  <si>
+    <t>Proche RER A
+Parking
+Grand séjour
+Prix au m² assez bas</t>
+  </si>
+  <si>
+    <t>Performance énergétique assez haute
+Pas de parking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -721,19 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -803,20 +815,17 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,8 +835,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1183,11 +1193,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,27 +1210,21 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2">
         <v>2.58</v>
       </c>
@@ -1227,913 +1232,710 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
       <c r="D5" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2">
         <f>E5/D5</f>
-        <v>1.5490196078431373</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="G5" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2">
         <f>G5/$H$2*D5</f>
-        <v>3755.8139534883717</v>
+        <v>1831.3953488372092</v>
       </c>
       <c r="I5" s="2">
         <f>H5*$I$2</f>
-        <v>544.59302325581382</v>
-      </c>
-      <c r="J5" s="2">
-        <f>I5/12</f>
-        <v>45.382751937984487</v>
-      </c>
-      <c r="K5" s="2">
-        <f>D5/J5</f>
-        <v>2.2475499092558988</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>9</v>
+        <v>265.55232558139534</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>189</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2">
+        <v>170</v>
       </c>
       <c r="F6" s="2">
         <f>E6/D6</f>
-        <v>1.89</v>
-      </c>
-      <c r="G6" s="1">
-        <v>240</v>
-      </c>
-      <c r="H6" s="1">
+        <v>3.2692307692307692</v>
+      </c>
+      <c r="G6" s="2">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2">
         <f>G6/$H$2*D6</f>
-        <v>9302.3255813953474</v>
+        <v>2136.4341085271317</v>
       </c>
       <c r="I6" s="2">
         <f>H6*$I$2</f>
-        <v>1348.8372093023254</v>
-      </c>
-      <c r="J6" s="1">
-        <f>I6/12</f>
-        <v>112.40310077519378</v>
-      </c>
-      <c r="K6" s="1">
-        <f>D6/J6</f>
-        <v>0.88965517241379322</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>9</v>
+        <v>309.7829457364341</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
-        <v>77</v>
-      </c>
-      <c r="E7" s="10">
-        <v>147</v>
+      <c r="D7" s="2">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2">
+        <v>157</v>
       </c>
       <c r="F7" s="2">
         <f>E7/D7</f>
-        <v>1.9090909090909092</v>
-      </c>
-      <c r="G7" s="10">
-        <v>188</v>
-      </c>
-      <c r="H7" s="1">
+        <v>2.7543859649122808</v>
+      </c>
+      <c r="G7" s="2">
+        <v>220</v>
+      </c>
+      <c r="H7" s="2">
         <f>G7/$H$2*D7</f>
-        <v>5610.8527131782948</v>
+        <v>4860.4651162790697</v>
       </c>
       <c r="I7" s="2">
         <f>H7*$I$2</f>
-        <v>813.5736434108527</v>
-      </c>
-      <c r="J7" s="1">
-        <f>I7/12</f>
-        <v>67.797803617571063</v>
-      </c>
-      <c r="K7" s="1">
-        <f>D7/J7</f>
-        <v>1.1357300073367571</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="10" t="s">
+        <v>704.76744186046506</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
-        <v>90</v>
-      </c>
-      <c r="E8" s="1">
-        <v>180</v>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E8" s="2">
+        <v>167.5</v>
       </c>
       <c r="F8" s="2">
         <f>E8/D8</f>
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>295</v>
-      </c>
-      <c r="H8" s="1">
+        <v>2.2156084656084656</v>
+      </c>
+      <c r="G8" s="2">
+        <v>180</v>
+      </c>
+      <c r="H8" s="2">
         <f>G8/$H$2*D8</f>
-        <v>10290.697674418605</v>
+        <v>5274.4186046511622</v>
       </c>
       <c r="I8" s="2">
         <f>H8*$I$2</f>
-        <v>1492.1511627906975</v>
-      </c>
-      <c r="J8" s="1">
-        <f>I8/12</f>
-        <v>124.34593023255813</v>
-      </c>
-      <c r="K8" s="1">
-        <f>D8/J8</f>
-        <v>0.72378725891291651</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>15</v>
+        <v>764.79069767441842</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>93.29</v>
-      </c>
-      <c r="E9" s="1">
-        <v>190</v>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>163</v>
       </c>
       <c r="F9" s="2">
         <f>E9/D9</f>
-        <v>2.0366598778004072</v>
-      </c>
-      <c r="G9" s="1">
-        <v>190</v>
-      </c>
-      <c r="H9" s="1">
+        <v>2.36231884057971</v>
+      </c>
+      <c r="G9" s="2">
+        <v>215</v>
+      </c>
+      <c r="H9" s="2">
         <f>G9/$H$2*D9</f>
-        <v>6870.1937984496126</v>
+        <v>5750</v>
       </c>
       <c r="I9" s="2">
         <f>H9*$I$2</f>
-        <v>996.1781007751938</v>
-      </c>
-      <c r="J9" s="1">
-        <f>I9/12</f>
-        <v>83.014841731266145</v>
-      </c>
-      <c r="K9" s="1">
-        <f>D9/J9</f>
-        <v>1.1237749546279494</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="1" t="s">
+        <v>833.74999999999989</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="10">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="E10" s="10">
-        <v>167.5</v>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="E10" s="2">
+        <v>169</v>
       </c>
       <c r="F10" s="2">
         <f>E10/D10</f>
-        <v>2.2156084656084656</v>
-      </c>
-      <c r="G10" s="10">
-        <v>180</v>
-      </c>
-      <c r="H10" s="1">
-        <f>G10/$H$2*D10</f>
-        <v>5274.4186046511622</v>
-      </c>
-      <c r="I10" s="2">
-        <f>H10*$I$2</f>
-        <v>764.79069767441842</v>
-      </c>
-      <c r="J10" s="1">
-        <f>I10/12</f>
-        <v>63.732558139534866</v>
-      </c>
-      <c r="K10" s="1">
-        <f>D10/J10</f>
-        <v>1.1862068965517243</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>24</v>
+        <v>2.3084278104084142</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>83.14</v>
-      </c>
-      <c r="E11" s="1">
-        <v>194</v>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>139</v>
       </c>
       <c r="F11" s="2">
         <f>E11/D11</f>
-        <v>2.3334135193649268</v>
-      </c>
-      <c r="G11" s="1">
-        <v>164</v>
-      </c>
-      <c r="H11" s="1">
+        <v>1.7375</v>
+      </c>
+      <c r="G11" s="2">
+        <v>250</v>
+      </c>
+      <c r="H11" s="2">
         <f>G11/$H$2*D11</f>
-        <v>5284.8682170542634</v>
+        <v>7751.937984496124</v>
       </c>
       <c r="I11" s="2">
         <f>H11*$I$2</f>
-        <v>766.3058914728681</v>
-      </c>
-      <c r="J11" s="1">
-        <f>I11/12</f>
-        <v>63.858824289405675</v>
-      </c>
-      <c r="K11" s="1">
-        <f>D11/J11</f>
-        <v>1.3019343986543317</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>16</v>
+        <v>1124.031007751938</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="C12" s="10">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10">
-        <v>81</v>
-      </c>
-      <c r="E12" s="10">
-        <v>192</v>
+      <c r="D12" s="2">
+        <v>91.25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>169</v>
       </c>
       <c r="F12" s="2">
         <f>E12/D12</f>
-        <v>2.3703703703703702</v>
-      </c>
-      <c r="G12" s="10">
-        <v>289</v>
-      </c>
-      <c r="H12" s="1">
+        <v>1.8520547945205479</v>
+      </c>
+      <c r="G12" s="2">
+        <v>308</v>
+      </c>
+      <c r="H12" s="2">
         <f>G12/$H$2*D12</f>
-        <v>9073.2558139534885</v>
+        <v>10893.410852713178</v>
       </c>
       <c r="I12" s="2">
         <f>H12*$I$2</f>
-        <v>1315.6220930232557</v>
-      </c>
-      <c r="J12" s="1">
-        <f>I12/12</f>
-        <v>109.63517441860465</v>
-      </c>
-      <c r="K12" s="1">
-        <f>D12/J12</f>
-        <v>0.73881398401145448</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>1579.5445736434106</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>76</v>
-      </c>
-      <c r="E13" s="1">
-        <v>197</v>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
+        <v>167.8</v>
       </c>
       <c r="F13" s="2">
         <f>E13/D13</f>
-        <v>2.5921052631578947</v>
-      </c>
-      <c r="G13" s="1">
-        <v>259</v>
-      </c>
-      <c r="H13" s="1">
+        <v>2.0975000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>302</v>
+      </c>
+      <c r="H13" s="2">
         <f>G13/$H$2*D13</f>
-        <v>7629.4573643410849</v>
+        <v>9364.3410852713187</v>
       </c>
       <c r="I13" s="2">
         <f>H13*$I$2</f>
-        <v>1106.2713178294573</v>
-      </c>
-      <c r="J13" s="1">
-        <f>I13/12</f>
-        <v>92.189276485788113</v>
-      </c>
-      <c r="K13" s="1">
-        <f>D13/J13</f>
-        <v>0.82439089335641058</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>24</v>
+        <v>1357.8294573643411</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="10">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
-        <v>65</v>
-      </c>
-      <c r="E14" s="10">
-        <v>169</v>
+      <c r="D14" s="2">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2">
+        <v>178</v>
       </c>
       <c r="F14" s="2">
         <f>E14/D14</f>
-        <v>2.6</v>
-      </c>
-      <c r="G14" s="10">
-        <v>193</v>
-      </c>
-      <c r="H14" s="1">
+        <v>2.6567164179104479</v>
+      </c>
+      <c r="G14" s="2">
+        <v>278</v>
+      </c>
+      <c r="H14" s="2">
         <f>G14/$H$2*D14</f>
-        <v>4862.4031007751937</v>
+        <v>7219.3798449612405</v>
       </c>
       <c r="I14" s="2">
         <f>H14*$I$2</f>
-        <v>705.04844961240303</v>
-      </c>
-      <c r="J14" s="1">
-        <f>I14/12</f>
-        <v>58.75403746770025</v>
-      </c>
-      <c r="K14" s="1">
-        <f>D14/J14</f>
-        <v>1.1063069501518672</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>24</v>
+        <v>1046.8100775193798</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>3</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
-        <v>74</v>
-      </c>
-      <c r="E15" s="10">
-        <v>193</v>
+      <c r="D15" s="2">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="E15" s="2">
+        <v>175</v>
       </c>
       <c r="F15" s="2">
         <f>E15/D15</f>
-        <v>2.6081081081081079</v>
-      </c>
-      <c r="G15" s="10">
-        <v>278</v>
-      </c>
-      <c r="H15" s="1">
+        <v>2.7279812938425563</v>
+      </c>
+      <c r="G15" s="2">
+        <v>242</v>
+      </c>
+      <c r="H15" s="2">
         <f>G15/$H$2*D15</f>
-        <v>7973.6434108527128</v>
+        <v>6017.1705426356593</v>
       </c>
       <c r="I15" s="2">
         <f>H15*$I$2</f>
-        <v>1156.1782945736434</v>
-      </c>
-      <c r="J15" s="1">
-        <f>I15/12</f>
-        <v>96.348191214470276</v>
-      </c>
-      <c r="K15" s="1">
-        <f>D15/J15</f>
-        <v>0.76804763086082861</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>24</v>
+        <v>872.48972868217049</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="10">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10">
-        <v>66</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="2">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2">
         <v>178</v>
       </c>
       <c r="F16" s="2">
         <f>E16/D16</f>
-        <v>2.6969696969696968</v>
-      </c>
-      <c r="G16" s="10">
-        <v>245</v>
-      </c>
-      <c r="H16" s="1">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>276</v>
+      </c>
+      <c r="H16" s="2">
         <f>G16/$H$2*D16</f>
-        <v>6267.4418604651155</v>
+        <v>8558.1395348837195</v>
       </c>
       <c r="I16" s="2">
         <f>H16*$I$2</f>
-        <v>908.77906976744168</v>
-      </c>
-      <c r="J16" s="1">
-        <f>I16/12</f>
-        <v>75.731589147286812</v>
-      </c>
-      <c r="K16" s="1">
-        <f>D16/J16</f>
-        <v>0.87149894440534847</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>1240.9302325581393</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1">
-        <v>175</v>
+      <c r="D17" s="2">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2">
+        <v>155</v>
       </c>
       <c r="F17" s="2">
         <f>E17/D17</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="G17" s="1">
-        <v>282</v>
-      </c>
-      <c r="H17" s="1">
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="G17" s="2">
+        <v>366</v>
+      </c>
+      <c r="H17" s="2">
         <f>G17/$H$2*D17</f>
-        <v>6886.0465116279074</v>
+        <v>10639.534883720931</v>
       </c>
       <c r="I17" s="2">
         <f>H17*$I$2</f>
-        <v>998.47674418604652</v>
-      </c>
-      <c r="J17" s="1">
-        <f>I17/12</f>
-        <v>83.206395348837205</v>
-      </c>
-      <c r="K17" s="1">
-        <f>D17/J17</f>
-        <v>0.75715333822450481</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>1542.7325581395348</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="10">
+    <row r="18" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="10">
-        <v>60</v>
-      </c>
-      <c r="E18" s="10">
-        <v>170</v>
+      <c r="D18" s="2">
+        <v>70.13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>179</v>
       </c>
       <c r="F18" s="2">
         <f>E18/D18</f>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="1" t="e">
+        <v>2.5524026807357765</v>
+      </c>
+      <c r="G18" s="2">
+        <v>262</v>
+      </c>
+      <c r="H18" s="2">
         <f>G18/$H$2*D18</f>
+        <v>7121.728682170542</v>
+      </c>
+      <c r="I18" s="2">
+        <f>H18*$I$2</f>
+        <v>1032.6506589147284</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="2" t="e">
+        <f>E19/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="e">
+        <f>G19/$H$2*D19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I18" s="2" t="e">
-        <f>H18*$I$2</f>
+      <c r="I19" s="2" t="e">
+        <f>H19*$I$2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J18" s="1" t="e">
-        <f>I18/12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" s="1" t="e">
-        <f>D18/J18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="10">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="E19" s="10">
-        <v>199</v>
-      </c>
-      <c r="F19" s="2">
-        <f>E19/D19</f>
-        <v>2.9969879518072289</v>
-      </c>
-      <c r="G19" s="10">
-        <v>250</v>
-      </c>
-      <c r="H19" s="1">
-        <f>G19/$H$2*D19</f>
-        <v>6434.1085271317834</v>
-      </c>
-      <c r="I19" s="2">
-        <f>H19*$I$2</f>
-        <v>932.94573643410854</v>
-      </c>
-      <c r="J19" s="1">
-        <f>I19/12</f>
-        <v>77.745478036175712</v>
-      </c>
-      <c r="K19" s="1">
-        <f>D19/J19</f>
-        <v>0.85406896551724143</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10">
-        <v>63</v>
-      </c>
-      <c r="E20" s="10">
-        <v>199</v>
-      </c>
-      <c r="F20" s="2">
-        <f>E20/D20</f>
-        <v>3.1587301587301586</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="1" t="e">
-        <f>G20/$H$2*D20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="2" t="e">
-        <f>H20*$I$2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="1" t="e">
-        <f>I20/12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" s="1" t="e">
-        <f>D20/J20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="10">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10">
-        <v>56.52</v>
-      </c>
-      <c r="E21" s="10">
-        <v>195</v>
-      </c>
-      <c r="F21" s="2">
-        <f>E21/D21</f>
-        <v>3.4501061571125264</v>
-      </c>
-      <c r="G21" s="10">
-        <v>183</v>
-      </c>
-      <c r="H21" s="1">
-        <f>G21/$H$2*D21</f>
-        <v>4008.9767441860467</v>
-      </c>
-      <c r="I21" s="2">
-        <f>H21*$I$2</f>
-        <v>581.30162790697671</v>
-      </c>
-      <c r="J21" s="1">
-        <f>I21/12</f>
-        <v>48.441802325581392</v>
-      </c>
-      <c r="K21" s="1">
-        <f>D21/J21</f>
-        <v>1.1667608818541551</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="2" t="e">
-        <f>E22/D22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1">
-        <f>G22/$H$2*D22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <f>H22*$I$2</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <f>I22/12</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="e">
-        <f>D22/J22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M4">
-    <sortState ref="A5:M22">
-      <sortCondition ref="F4"/>
+  <autoFilter ref="A4:L19" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="Oui"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A5:L19">
+      <sortCondition descending="1" ref="J4:J19"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K22">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="I5:I19">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1"/>
-    <hyperlink ref="A21" r:id="rId2"/>
-    <hyperlink ref="A18" r:id="rId3"/>
-    <hyperlink ref="A10" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A15" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="A6" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A8" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A17" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="F5:F19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5B0586-A051-44C7-8A8B-45F45FE768A1}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>